--- a/IITAcademicAutomationSystem/Areas/One/Content/Student/Student-Info.xlsx
+++ b/IITAcademicAutomationSystem/Areas/One/Content/Student/Student-Info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Roll</t>
   </si>
@@ -41,42 +41,16 @@
   </si>
   <si>
     <t>Permanent Address</t>
-  </si>
-  <si>
-    <t>BSSE0501</t>
-  </si>
-  <si>
-    <t>Dipok Chandra Das</t>
-  </si>
-  <si>
-    <t>2012-2013</t>
-  </si>
-  <si>
-    <t>bsse0501@iit.du.ac.bd</t>
-  </si>
-  <si>
-    <t>Dhaka, Bangladesh</t>
-  </si>
-  <si>
-    <t>Braksmanbaria, Bangladesh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,16 +73,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -411,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,39 +430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>101154</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>1725647185</v>
-      </c>
-      <c r="G2">
-        <v>1874569874</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/IITAcademicAutomationSystem/Areas/One/Content/Student/Student-Info.xlsx
+++ b/IITAcademicAutomationSystem/Areas/One/Content/Student/Student-Info.xlsx
@@ -384,21 +384,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" customWidth="1"/>
-    <col min="9" max="9" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+    <col min="9" max="9" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
